--- a/ゼミ_データ収集.xlsx
+++ b/ゼミ_データ収集.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="71" documentId="8_{808F9BF9-EB96-8C41-B375-9EC409FC1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13CE4749-E956-4AD5-BF05-EA65E3DA7B67}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{84FBB25A-40E1-5F46-B41E-3DCA57CBD9D0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{84FBB25A-40E1-5F46-B41E-3DCA57CBD9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6748,14 +6748,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6763,7 +6763,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6771,7 +6771,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6884,10 +6884,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7210,12 +7206,12 @@
       <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="27" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="8" max="9" width="11" style="5"/>
   </cols>
   <sheetData>

--- a/ゼミ_データ収集.xlsx
+++ b/ゼミ_データ収集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chuouniv-my.sharepoint.com/personal/a21_5g58_m_chuo-u_ac_jp/Documents/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{808F9BF9-EB96-8C41-B375-9EC409FC1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A691E88-9D65-4F93-B247-0C86255BD8C8}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{808F9BF9-EB96-8C41-B375-9EC409FC1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC7991A7-8D33-1943-93B7-A533C8E710DD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{84FBB25A-40E1-5F46-B41E-3DCA57CBD9D0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{84FBB25A-40E1-5F46-B41E-3DCA57CBD9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4323" uniqueCount="2230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4331" uniqueCount="2237">
   <si>
     <t>銘柄コード</t>
     <rPh sb="0" eb="2">
@@ -6738,6 +6738,28 @@
   </si>
   <si>
     <t>銘柄コード</t>
+  </si>
+  <si>
+    <t>['6861,キーエンス,プライム,電気機器']</t>
+  </si>
+  <si>
+    <t>銘柄コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポジティブ比</t>
+  </si>
+  <si>
+    <t>決算前終値</t>
+  </si>
+  <si>
+    <t>決算後終値</t>
+  </si>
+  <si>
+    <t>銘柄情報</t>
+  </si>
+  <si>
+    <t>TOPIX騰落率</t>
   </si>
 </sst>
 </file>
@@ -6748,14 +6770,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6763,7 +6785,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6771,7 +6793,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6884,6 +6906,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7200,22 +7226,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90D4F2C-B83C-F144-B513-0232292903C3}">
-  <dimension ref="A1:J2169"/>
+  <dimension ref="A1:R2169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="27" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="8" max="9" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>2162</v>
       </c>
@@ -7240,8 +7266,29 @@
       <c r="I1" s="5" t="s">
         <v>2229</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7259,7 +7306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7277,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7294,8 +7341,29 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I4</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4">
+        <v>6861</v>
+      </c>
+      <c r="M4">
+        <v>0.9</v>
+      </c>
+      <c r="N4">
+        <v>61610</v>
+      </c>
+      <c r="O4">
+        <v>61100</v>
+      </c>
+      <c r="P4">
+        <v>0.99172212303197504</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2230</v>
+      </c>
+      <c r="R4">
+        <v>1.0165917288403501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -7313,7 +7381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -7331,7 +7399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -7349,7 +7417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -7367,7 +7435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -7385,7 +7453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -7403,7 +7471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -7421,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -7439,7 +7507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -7457,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -7475,7 +7543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -7493,7 +7561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>

--- a/ゼミ_データ収集.xlsx
+++ b/ゼミ_データ収集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chuouniv-my.sharepoint.com/personal/a21_5g58_m_chuo-u_ac_jp/Documents/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{808F9BF9-EB96-8C41-B375-9EC409FC1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC7991A7-8D33-1943-93B7-A533C8E710DD}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{808F9BF9-EB96-8C41-B375-9EC409FC1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E066A2D1-C244-B147-8B5B-10ADC5040E46}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{84FBB25A-40E1-5F46-B41E-3DCA57CBD9D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4331" uniqueCount="2237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4330" uniqueCount="2236">
   <si>
     <t>銘柄コード</t>
     <rPh sb="0" eb="2">
@@ -6738,9 +6738,6 @@
   </si>
   <si>
     <t>銘柄コード</t>
-  </si>
-  <si>
-    <t>['6861,キーエンス,プライム,電気機器']</t>
   </si>
   <si>
     <t>銘柄コード</t>
@@ -6906,10 +6903,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7229,7 +7222,7 @@
   <dimension ref="A1:R2169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:R1"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="20"/>
@@ -7267,25 +7260,25 @@
         <v>2229</v>
       </c>
       <c r="L1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="M1" t="s">
         <v>2231</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>2232</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>2233</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2234</v>
       </c>
       <c r="P1" t="s">
         <v>2163</v>
       </c>
       <c r="Q1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="R1" t="s">
         <v>2235</v>
-      </c>
-      <c r="R1" t="s">
-        <v>2236</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -7340,27 +7333,6 @@
       <c r="J4" t="b">
         <f>テーブル1[[#This Row],[銘柄コード]]=I4</f>
         <v>1</v>
-      </c>
-      <c r="L4">
-        <v>6861</v>
-      </c>
-      <c r="M4">
-        <v>0.9</v>
-      </c>
-      <c r="N4">
-        <v>61610</v>
-      </c>
-      <c r="O4">
-        <v>61100</v>
-      </c>
-      <c r="P4">
-        <v>0.99172212303197504</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>2230</v>
-      </c>
-      <c r="R4">
-        <v>1.0165917288403501</v>
       </c>
     </row>
     <row r="5" spans="1:18">

--- a/ゼミ_データ収集.xlsx
+++ b/ゼミ_データ収集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chuouniv-my.sharepoint.com/personal/a21_5g58_m_chuo-u_ac_jp/Documents/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{808F9BF9-EB96-8C41-B375-9EC409FC1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E066A2D1-C244-B147-8B5B-10ADC5040E46}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{808F9BF9-EB96-8C41-B375-9EC409FC1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62BDCAE0-EB8F-47E9-8A11-ED64FD530899}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{84FBB25A-40E1-5F46-B41E-3DCA57CBD9D0}"/>
+    <workbookView xWindow="690" yWindow="690" windowWidth="21600" windowHeight="11295" xr2:uid="{84FBB25A-40E1-5F46-B41E-3DCA57CBD9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4330" uniqueCount="2236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4329" uniqueCount="2240">
   <si>
     <t>銘柄コード</t>
     <rPh sb="0" eb="2">
@@ -6758,23 +6758,35 @@
   <si>
     <t>TOPIX騰落率</t>
   </si>
+  <si>
+    <t>2023/4/7/</t>
+  </si>
+  <si>
+    <t>2023/4/14/</t>
+  </si>
+  <si>
+    <t>2023/4/13/</t>
+  </si>
+  <si>
+    <t>2023/4/10/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6782,7 +6794,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6790,7 +6802,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6800,6 +6812,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6819,15 +6839,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6844,8 +6865,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 8 2" xfId="1" xr:uid="{7AAE3D8D-06FA-1D43-9915-24193253873B}"/>
   </cellStyles>
@@ -6903,6 +6926,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7221,16 +7248,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90D4F2C-B83C-F144-B513-0232292903C3}">
   <dimension ref="A1:R2169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="D253" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G262" sqref="G262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="27" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="4" customWidth="1"/>
-    <col min="3" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="8" max="9" width="11" style="5"/>
   </cols>
   <sheetData>
@@ -9089,7 +9116,7 @@
         <v>6506</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>2183</v>
+        <v>2236</v>
       </c>
       <c r="I102" s="5">
         <v>6506</v>
@@ -10061,7 +10088,7 @@
         <v>6532</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>2185</v>
+        <v>2237</v>
       </c>
       <c r="I156" s="5">
         <v>6532</v>
@@ -12004,8 +12031,8 @@
       <c r="B264" s="3">
         <v>4716</v>
       </c>
-      <c r="H264" s="5" t="s">
-        <v>2191</v>
+      <c r="H264" s="6">
+        <v>45100</v>
       </c>
       <c r="I264" s="5">
         <v>4716</v>
@@ -12311,7 +12338,7 @@
         <v>3697</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>2178</v>
+        <v>2239</v>
       </c>
       <c r="I281" s="5">
         <v>3697</v>
@@ -12347,7 +12374,7 @@
         <v>7453</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>2183</v>
+        <v>2238</v>
       </c>
       <c r="I283" s="5">
         <v>7453</v>

--- a/ゼミ_データ収集.xlsx
+++ b/ゼミ_データ収集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chuouniv-my.sharepoint.com/personal/a21_5g58_m_chuo-u_ac_jp/Documents/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{808F9BF9-EB96-8C41-B375-9EC409FC1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62BDCAE0-EB8F-47E9-8A11-ED64FD530899}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{808F9BF9-EB96-8C41-B375-9EC409FC1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75DD9D13-BB49-47B2-85F0-9101C9BD5D5E}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="690" windowWidth="21600" windowHeight="11295" xr2:uid="{84FBB25A-40E1-5F46-B41E-3DCA57CBD9D0}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{84FBB25A-40E1-5F46-B41E-3DCA57CBD9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6822,12 +6822,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -6848,7 +6860,7 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6866,6 +6878,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -7248,8 +7269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90D4F2C-B83C-F144-B513-0232292903C3}">
   <dimension ref="A1:R2169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D253" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G262" sqref="G262"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -7309,7 +7330,7 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
@@ -7543,7 +7564,7 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3">
@@ -7597,7 +7618,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
@@ -7705,7 +7726,7 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3">
@@ -7759,7 +7780,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="3">
@@ -7777,7 +7798,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="3">
@@ -7813,7 +7834,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3">
@@ -7903,7 +7924,7 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="3">
@@ -8036,7 +8057,7 @@
         <v>9983</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>2178</v>
+        <v>2238</v>
       </c>
       <c r="I42" s="5">
         <v>9983</v>
@@ -8137,7 +8158,7 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="3">
@@ -8515,7 +8536,7 @@
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="3">
@@ -8551,7 +8572,7 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="3">
@@ -8911,7 +8932,7 @@
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B91" s="3">
@@ -9019,7 +9040,7 @@
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B97" s="3">
@@ -9037,7 +9058,7 @@
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B98" s="3">
@@ -9091,7 +9112,7 @@
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="3">
@@ -9109,7 +9130,7 @@
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B102" s="3">
@@ -9253,7 +9274,7 @@
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B110" s="3">
@@ -9325,7 +9346,7 @@
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B114" s="3">
@@ -9361,7 +9382,7 @@
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B116" s="3">
@@ -9379,7 +9400,7 @@
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="3">
@@ -9397,7 +9418,7 @@
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B118" s="3">

--- a/ゼミ_データ収集.xlsx
+++ b/ゼミ_データ収集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chuouniv-my.sharepoint.com/personal/a21_5g58_m_chuo-u_ac_jp/Documents/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{808F9BF9-EB96-8C41-B375-9EC409FC1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75DD9D13-BB49-47B2-85F0-9101C9BD5D5E}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{808F9BF9-EB96-8C41-B375-9EC409FC1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795AEF5F-9822-3B41-ACDD-465A244A21C9}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{84FBB25A-40E1-5F46-B41E-3DCA57CBD9D0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{84FBB25A-40E1-5F46-B41E-3DCA57CBD9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4329" uniqueCount="2240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4331" uniqueCount="2242">
   <si>
     <t>銘柄コード</t>
     <rPh sb="0" eb="2">
@@ -6769,6 +6769,12 @@
   </si>
   <si>
     <t>2023/4/10/</t>
+  </si>
+  <si>
+    <t>銘柄コードの一致</t>
+  </si>
+  <si>
+    <t>決算日の一致</t>
   </si>
 </sst>
 </file>
@@ -6779,14 +6785,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6794,7 +6800,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6802,7 +6808,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6816,7 +6822,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6860,7 +6866,7 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6882,9 +6888,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -7267,22 +7270,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90D4F2C-B83C-F144-B513-0232292903C3}">
-  <dimension ref="A1:R2169"/>
+  <dimension ref="A1:S2169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="125" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="27" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="8" max="9" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>2162</v>
       </c>
@@ -7307,29 +7310,35 @@
       <c r="I1" s="5" t="s">
         <v>2229</v>
       </c>
-      <c r="L1" t="s">
+      <c r="J1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="M1" t="s">
         <v>2230</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>2231</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>2232</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>2233</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>2163</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>2234</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>2235</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -7347,7 +7356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7365,7 +7374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7383,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -7401,7 +7410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -7419,7 +7428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -7437,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -7455,7 +7464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -7473,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -7491,7 +7500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -7509,7 +7518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -7527,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -7545,7 +7554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -7563,7 +7572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -7581,7 +7590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -7726,7 +7735,7 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3">
@@ -7780,7 +7789,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="3">
@@ -7924,7 +7933,7 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="3">
@@ -8536,7 +8545,7 @@
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="3">
@@ -8572,7 +8581,7 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="3">
@@ -8932,7 +8941,7 @@
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B91" s="3">
@@ -9112,7 +9121,7 @@
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="3">
@@ -9130,7 +9139,7 @@
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B102" s="3">
@@ -9274,7 +9283,7 @@
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B110" s="3">
@@ -9346,7 +9355,7 @@
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B114" s="3">

--- a/ゼミ_データ収集.xlsx
+++ b/ゼミ_データ収集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chuouniv-my.sharepoint.com/personal/a21_5g58_m_chuo-u_ac_jp/Documents/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{808F9BF9-EB96-8C41-B375-9EC409FC1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795AEF5F-9822-3B41-ACDD-465A244A21C9}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{808F9BF9-EB96-8C41-B375-9EC409FC1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68531F30-19E1-FC4D-992E-2719567DBCE2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{84FBB25A-40E1-5F46-B41E-3DCA57CBD9D0}"/>
   </bookViews>
@@ -6866,7 +6866,7 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6888,6 +6888,9 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -7273,7 +7276,7 @@
   <dimension ref="A1:S2169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A108" zoomScale="125" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="20"/>
@@ -7627,7 +7630,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
@@ -7843,7 +7846,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3">
@@ -9409,7 +9412,7 @@
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="3">

--- a/ゼミ_データ収集.xlsx
+++ b/ゼミ_データ収集.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chuouniv-my.sharepoint.com/personal/a21_5g58_m_chuo-u_ac_jp/Documents/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{808F9BF9-EB96-8C41-B375-9EC409FC1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68531F30-19E1-FC4D-992E-2719567DBCE2}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="8_{808F9BF9-EB96-8C41-B375-9EC409FC1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B255BBA-43F0-D44E-BAD6-2A9609D70197}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{84FBB25A-40E1-5F46-B41E-3DCA57CBD9D0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{84FBB25A-40E1-5F46-B41E-3DCA57CBD9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$N$2:$N$2169</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$Q$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$Q$2:$Q$2169</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4331" uniqueCount="2242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4360" uniqueCount="2268">
   <si>
     <t>銘柄コード</t>
     <rPh sb="0" eb="2">
@@ -6774,14 +6780,92 @@
     <t>銘柄コードの一致</t>
   </si>
   <si>
-    <t>決算日の一致</t>
+    <t>決算日</t>
+  </si>
+  <si>
+    <t>[7203,トヨタ自動車,プライム,輸送用機器]</t>
+  </si>
+  <si>
+    <t>[6758,ソニーグループ,プライム,電気機器]</t>
+  </si>
+  <si>
+    <t>[6861,キーエンス,プライム,電気機器]</t>
+  </si>
+  <si>
+    <t>[9432,日本電信電話,プライム,情報・通信業]</t>
+  </si>
+  <si>
+    <t>[8306,三菱ＵＦＪフィナンシャル・グループ,プライム,銀行業]</t>
+  </si>
+  <si>
+    <t>[4568,第一三共,プライム,医薬品]</t>
+  </si>
+  <si>
+    <t>[4502,武田薬品工業,プライム,医薬品]</t>
+  </si>
+  <si>
+    <t>[8316,三井住友フィナンシャルグループ,プライム,銀行業]</t>
+  </si>
+  <si>
+    <t>[6501,日立製作所,プライム,電気機器]</t>
+  </si>
+  <si>
+    <t>[7974,任天堂,プライム,その他製品]</t>
+  </si>
+  <si>
+    <t>[9433,ＫＤＤＩ,プライム,情報・通信業]</t>
+  </si>
+  <si>
+    <t>[8058,三菱商事,プライム,卸売業]</t>
+  </si>
+  <si>
+    <t>[8035,東京エレクトロン,プライム,電気機器]</t>
+  </si>
+  <si>
+    <t>[4063,信越化学工業,プライム,化学]</t>
+  </si>
+  <si>
+    <t>[8031,三井物産,プライム,卸売業]</t>
+  </si>
+  <si>
+    <t>[7741,ＨＯＹＡ,プライム,精密機器]</t>
+  </si>
+  <si>
+    <t>[6367,ダイキン工業,プライム,機械]</t>
+  </si>
+  <si>
+    <t>[8001,伊藤忠商事,プライム,卸売業]</t>
+  </si>
+  <si>
+    <t>[7267,本田技研工業,プライム,輸送用機器]</t>
+  </si>
+  <si>
+    <t>[6098,リクルートホールディングス,プライム,サービス業]</t>
+  </si>
+  <si>
+    <t>[8411,みずほフィナンシャルグループ,プライム,銀行業]</t>
+  </si>
+  <si>
+    <t>[8766,東京海上ホールディングス,プライム,保険業]</t>
+  </si>
+  <si>
+    <t>[4661,オリエンタルランド,プライム,サービス業]</t>
+  </si>
+  <si>
+    <t>[9984,ソフトバンクグループ,プライム,情報・通信業]</t>
+  </si>
+  <si>
+    <t>列 1</t>
+  </si>
+  <si>
+    <t>列 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6827,8 +6911,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF86868B"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6837,23 +6929,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -6866,7 +6972,7 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6887,11 +6993,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6953,6 +7071,1044 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>騰落率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$2169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2168"/>
+                <c:pt idx="0">
+                  <c:v>0.527272727272727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54733727810650801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47959183673469302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61224489795918302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75221238938053003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73333333333333295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62030075187969902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66371681415929196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55645161290322498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42307692307692302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63636363636363602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64516129032257996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80597014925373101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41379310344827502</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61764705882352899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.60869565217391297</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.60317460317460303</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61038961038961004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.50442477876106195</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90909090909090895</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48458149779735599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$2169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2168"/>
+                <c:pt idx="0">
+                  <c:v>0.99973910774849895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99973910774849895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.00198886237072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99172212303197504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0023872045834299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0472078295912399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98683372265873803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97245901639344201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.00667017728629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98668600052728705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99756055061857396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.04596067282634</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0588701684836399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0489443378119001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95147783251231499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97590919620106498</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99236641221374</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99532619279454704</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.01653971708378</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0240897892143399</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.03966813585688</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0233889027121099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.05549738219895</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.00989057239057</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95503666538016196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5455-AC44-B30C-582FBBD04418}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="245294976"/>
+        <c:axId val="164082911"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="245294976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164082911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="164082911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245294976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>829817</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>932148</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>203777</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B149AC-0F9C-3513-63A5-AA0E55998C62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7273,10 +8429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90D4F2C-B83C-F144-B513-0232292903C3}">
-  <dimension ref="A1:S2169"/>
+  <dimension ref="A1:AF2169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="125" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="T3" zoomScale="125" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="20"/>
@@ -7288,7 +8444,7 @@
     <col min="8" max="9" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:32">
       <c r="A1" s="2" t="s">
         <v>2162</v>
       </c>
@@ -7316,9 +8472,6 @@
       <c r="J1" t="s">
         <v>2240</v>
       </c>
-      <c r="K1" t="s">
-        <v>2241</v>
-      </c>
       <c r="M1" t="s">
         <v>2230</v>
       </c>
@@ -7340,9 +8493,12 @@
       <c r="S1" t="s">
         <v>2235</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="7" t="s">
+      <c r="T1" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
@@ -7358,8 +8514,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="M2">
+        <v>7203</v>
+      </c>
+      <c r="N2">
+        <v>0.527272727272727</v>
+      </c>
+      <c r="O2">
+        <v>1916.5</v>
+      </c>
+      <c r="P2">
+        <v>1916</v>
+      </c>
+      <c r="Q2">
+        <v>0.99973910774849895</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2242</v>
+      </c>
+      <c r="S2">
+        <v>0.99310624299778305</v>
+      </c>
+      <c r="T2" s="9">
+        <v>45056</v>
+      </c>
+      <c r="AE2">
+        <v>0.527272727272727</v>
+      </c>
+      <c r="AF2">
+        <v>0.99973910774849895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7376,8 +8562,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="M3">
+        <v>7203</v>
+      </c>
+      <c r="N3">
+        <v>0.54733727810650801</v>
+      </c>
+      <c r="O3">
+        <v>1916.5</v>
+      </c>
+      <c r="P3">
+        <v>1916</v>
+      </c>
+      <c r="Q3">
+        <v>0.99973910774849895</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2242</v>
+      </c>
+      <c r="S3">
+        <v>0.99310624299778305</v>
+      </c>
+      <c r="T3" s="9">
+        <v>45056</v>
+      </c>
+      <c r="AE3">
+        <v>0.54733727810650801</v>
+      </c>
+      <c r="AF3">
+        <v>0.99973910774849895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7394,8 +8610,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I4</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="M4">
+        <v>6758</v>
+      </c>
+      <c r="N4">
+        <v>0.47959183673469302</v>
+      </c>
+      <c r="O4">
+        <v>12570</v>
+      </c>
+      <c r="P4">
+        <v>12595</v>
+      </c>
+      <c r="Q4">
+        <v>1.00198886237072</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2243</v>
+      </c>
+      <c r="S4">
+        <v>1.02241071384642</v>
+      </c>
+      <c r="T4" s="9">
+        <v>45044</v>
+      </c>
+      <c r="AE4">
+        <v>0.47959183673469302</v>
+      </c>
+      <c r="AF4">
+        <v>1.00198886237072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -7412,8 +8658,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="M5">
+        <v>6861</v>
+      </c>
+      <c r="N5">
+        <v>0.9</v>
+      </c>
+      <c r="O5">
+        <v>61610</v>
+      </c>
+      <c r="P5">
+        <v>61100</v>
+      </c>
+      <c r="Q5">
+        <v>0.99172212303197504</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2244</v>
+      </c>
+      <c r="S5">
+        <v>1.0165917288403501</v>
+      </c>
+      <c r="T5" s="9">
+        <v>45043</v>
+      </c>
+      <c r="AE5">
+        <v>0.9</v>
+      </c>
+      <c r="AF5">
+        <v>0.99172212303197504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -7430,8 +8706,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I6</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="M6">
+        <v>9432</v>
+      </c>
+      <c r="N6">
+        <v>0.61224489795918302</v>
+      </c>
+      <c r="O6">
+        <v>4189</v>
+      </c>
+      <c r="P6">
+        <v>4199</v>
+      </c>
+      <c r="Q6">
+        <v>1.0023872045834299</v>
+      </c>
+      <c r="R6" t="s">
+        <v>2245</v>
+      </c>
+      <c r="S6">
+        <v>1.0152465808006299</v>
+      </c>
+      <c r="T6" s="9">
+        <v>45058</v>
+      </c>
+      <c r="AE6">
+        <v>0.61224489795918302</v>
+      </c>
+      <c r="AF6">
+        <v>1.0023872045834299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -7448,8 +8754,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I7</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="M7">
+        <v>8306</v>
+      </c>
+      <c r="N7">
+        <v>0.75221238938053003</v>
+      </c>
+      <c r="O7">
+        <v>868.5</v>
+      </c>
+      <c r="P7">
+        <v>909.5</v>
+      </c>
+      <c r="Q7">
+        <v>1.0472078295912399</v>
+      </c>
+      <c r="R7" t="s">
+        <v>2246</v>
+      </c>
+      <c r="S7">
+        <v>1.01468715267674</v>
+      </c>
+      <c r="T7" s="9">
+        <v>45061</v>
+      </c>
+      <c r="AE7">
+        <v>0.75221238938053003</v>
+      </c>
+      <c r="AF7">
+        <v>1.0472078295912399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -7466,8 +8802,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I8</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="M8">
+        <v>4568</v>
+      </c>
+      <c r="N8">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="O8">
+        <v>4709</v>
+      </c>
+      <c r="P8">
+        <v>4647</v>
+      </c>
+      <c r="Q8">
+        <v>0.98683372265873803</v>
+      </c>
+      <c r="R8" t="s">
+        <v>2247</v>
+      </c>
+      <c r="S8">
+        <v>1.0165917288403501</v>
+      </c>
+      <c r="T8" s="9">
+        <v>45043</v>
+      </c>
+      <c r="AE8">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="AF8">
+        <v>0.98683372265873803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -7484,8 +8850,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I9</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="M9">
+        <v>4502</v>
+      </c>
+      <c r="N9">
+        <v>0.62030075187969902</v>
+      </c>
+      <c r="O9">
+        <v>4575</v>
+      </c>
+      <c r="P9">
+        <v>4449</v>
+      </c>
+      <c r="Q9">
+        <v>0.97245901639344201</v>
+      </c>
+      <c r="R9" t="s">
+        <v>2248</v>
+      </c>
+      <c r="S9">
+        <v>1.00502418608664</v>
+      </c>
+      <c r="T9" s="9">
+        <v>45057</v>
+      </c>
+      <c r="AE9">
+        <v>0.62030075187969902</v>
+      </c>
+      <c r="AF9">
+        <v>0.97245901639344201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -7502,8 +8898,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I10</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="M10">
+        <v>8316</v>
+      </c>
+      <c r="N10">
+        <v>0.66371681415929196</v>
+      </c>
+      <c r="O10">
+        <v>5697</v>
+      </c>
+      <c r="P10">
+        <v>5735</v>
+      </c>
+      <c r="Q10">
+        <v>1.00667017728629</v>
+      </c>
+      <c r="R10" t="s">
+        <v>2249</v>
+      </c>
+      <c r="S10">
+        <v>1.01468715267674</v>
+      </c>
+      <c r="T10" s="9">
+        <v>45061</v>
+      </c>
+      <c r="AE10">
+        <v>0.66371681415929196</v>
+      </c>
+      <c r="AF10">
+        <v>1.00667017728629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -7520,8 +8946,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I11</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="M11">
+        <v>6501</v>
+      </c>
+      <c r="N11">
+        <v>0.55645161290322498</v>
+      </c>
+      <c r="O11">
+        <v>7586</v>
+      </c>
+      <c r="P11">
+        <v>7485</v>
+      </c>
+      <c r="Q11">
+        <v>0.98668600052728705</v>
+      </c>
+      <c r="R11" t="s">
+        <v>2250</v>
+      </c>
+      <c r="S11">
+        <v>1.0165917288403501</v>
+      </c>
+      <c r="T11" s="9">
+        <v>45043</v>
+      </c>
+      <c r="AE11">
+        <v>0.55645161290322498</v>
+      </c>
+      <c r="AF11">
+        <v>0.98668600052728705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -7538,8 +8994,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I12</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="M12">
+        <v>7974</v>
+      </c>
+      <c r="N12">
+        <v>0.42307692307692302</v>
+      </c>
+      <c r="O12">
+        <v>5739</v>
+      </c>
+      <c r="P12">
+        <v>5725</v>
+      </c>
+      <c r="Q12">
+        <v>0.99756055061857396</v>
+      </c>
+      <c r="R12" t="s">
+        <v>2251</v>
+      </c>
+      <c r="S12">
+        <v>1.0070973006117101</v>
+      </c>
+      <c r="T12" s="9">
+        <v>45055</v>
+      </c>
+      <c r="AE12">
+        <v>0.42307692307692302</v>
+      </c>
+      <c r="AF12">
+        <v>0.99756055061857396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -7556,8 +9042,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I13</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="M13">
+        <v>9433</v>
+      </c>
+      <c r="N13">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="O13">
+        <v>4221</v>
+      </c>
+      <c r="P13">
+        <v>4415</v>
+      </c>
+      <c r="Q13">
+        <v>1.04596067282634</v>
+      </c>
+      <c r="R13" t="s">
+        <v>2252</v>
+      </c>
+      <c r="S13">
+        <v>1.00502418608664</v>
+      </c>
+      <c r="T13" s="9">
+        <v>45057</v>
+      </c>
+      <c r="AE13">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="AF13">
+        <v>1.04596067282634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -7574,9 +9090,39 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I14</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="7" t="s">
+      <c r="M14">
+        <v>8058</v>
+      </c>
+      <c r="N14">
+        <v>0.64516129032257996</v>
+      </c>
+      <c r="O14">
+        <v>5045</v>
+      </c>
+      <c r="P14">
+        <v>5342</v>
+      </c>
+      <c r="Q14">
+        <v>1.0588701684836399</v>
+      </c>
+      <c r="R14" t="s">
+        <v>2253</v>
+      </c>
+      <c r="S14">
+        <v>1.0070973006117101</v>
+      </c>
+      <c r="T14" s="9">
+        <v>45055</v>
+      </c>
+      <c r="AE14">
+        <v>0.64516129032257996</v>
+      </c>
+      <c r="AF14">
+        <v>1.0588701684836399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3">
@@ -7592,8 +9138,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I15</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="M15">
+        <v>8035</v>
+      </c>
+      <c r="N15">
+        <v>0.80597014925373101</v>
+      </c>
+      <c r="O15">
+        <v>15630</v>
+      </c>
+      <c r="P15">
+        <v>16395</v>
+      </c>
+      <c r="Q15">
+        <v>1.0489443378119001</v>
+      </c>
+      <c r="R15" t="s">
+        <v>2254</v>
+      </c>
+      <c r="S15">
+        <v>1.00502418608664</v>
+      </c>
+      <c r="T15" s="9">
+        <v>45057</v>
+      </c>
+      <c r="AE15">
+        <v>0.80597014925373101</v>
+      </c>
+      <c r="AF15">
+        <v>1.0489443378119001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -7610,8 +9186,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I16</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="M16">
+        <v>4063</v>
+      </c>
+      <c r="N16">
+        <v>0.8125</v>
+      </c>
+      <c r="O16">
+        <v>4060</v>
+      </c>
+      <c r="P16">
+        <v>3863</v>
+      </c>
+      <c r="Q16">
+        <v>0.95147783251231499</v>
+      </c>
+      <c r="R16" t="s">
+        <v>2255</v>
+      </c>
+      <c r="S16">
+        <v>1.0165917288403501</v>
+      </c>
+      <c r="T16" s="9">
+        <v>45043</v>
+      </c>
+      <c r="AE16">
+        <v>0.8125</v>
+      </c>
+      <c r="AF16">
+        <v>0.95147783251231499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -7628,9 +9234,39 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I17</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="9" t="s">
+      <c r="M17">
+        <v>8031</v>
+      </c>
+      <c r="N17">
+        <v>0.41379310344827502</v>
+      </c>
+      <c r="O17">
+        <v>4317</v>
+      </c>
+      <c r="P17">
+        <v>4213</v>
+      </c>
+      <c r="Q17">
+        <v>0.97590919620106498</v>
+      </c>
+      <c r="R17" t="s">
+        <v>2256</v>
+      </c>
+      <c r="S17">
+        <v>0.99670365629481295</v>
+      </c>
+      <c r="T17" s="9">
+        <v>45048</v>
+      </c>
+      <c r="AE17">
+        <v>0.41379310344827502</v>
+      </c>
+      <c r="AF17">
+        <v>0.97590919620106498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
@@ -7646,8 +9282,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I18</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="M18">
+        <v>7741</v>
+      </c>
+      <c r="N18">
+        <v>0.62</v>
+      </c>
+      <c r="O18">
+        <v>15065</v>
+      </c>
+      <c r="P18">
+        <v>14950</v>
+      </c>
+      <c r="Q18">
+        <v>0.99236641221374</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2257</v>
+      </c>
+      <c r="S18">
+        <v>1.0127172039532399</v>
+      </c>
+      <c r="T18" s="9">
+        <v>45054</v>
+      </c>
+      <c r="AE18">
+        <v>0.62</v>
+      </c>
+      <c r="AF18">
+        <v>0.99236641221374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -7664,8 +9330,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I19</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="M19">
+        <v>6367</v>
+      </c>
+      <c r="N19">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="O19">
+        <v>25675</v>
+      </c>
+      <c r="P19">
+        <v>25555</v>
+      </c>
+      <c r="Q19">
+        <v>0.99532619279454704</v>
+      </c>
+      <c r="R19" t="s">
+        <v>2258</v>
+      </c>
+      <c r="S19">
+        <v>1.0070973006117101</v>
+      </c>
+      <c r="T19" s="9">
+        <v>45055</v>
+      </c>
+      <c r="AE19">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="AF19">
+        <v>0.99532619279454704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -7682,8 +9378,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I20</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="M20">
+        <v>8001</v>
+      </c>
+      <c r="N20">
+        <v>0.61764705882352899</v>
+      </c>
+      <c r="O20">
+        <v>4595</v>
+      </c>
+      <c r="P20">
+        <v>4671</v>
+      </c>
+      <c r="Q20">
+        <v>1.01653971708378</v>
+      </c>
+      <c r="R20" t="s">
+        <v>2259</v>
+      </c>
+      <c r="S20">
+        <v>1.0070973006117101</v>
+      </c>
+      <c r="T20" s="9">
+        <v>45055</v>
+      </c>
+      <c r="AE20">
+        <v>0.61764705882352899</v>
+      </c>
+      <c r="AF20">
+        <v>1.01653971708378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -7700,8 +9426,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I21</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="M21">
+        <v>7267</v>
+      </c>
+      <c r="N21">
+        <v>0.60869565217391297</v>
+      </c>
+      <c r="O21">
+        <v>3653</v>
+      </c>
+      <c r="P21">
+        <v>3741</v>
+      </c>
+      <c r="Q21">
+        <v>1.0240897892143399</v>
+      </c>
+      <c r="R21" t="s">
+        <v>2260</v>
+      </c>
+      <c r="S21">
+        <v>1.00502418608664</v>
+      </c>
+      <c r="T21" s="9">
+        <v>45057</v>
+      </c>
+      <c r="AE21">
+        <v>0.60869565217391297</v>
+      </c>
+      <c r="AF21">
+        <v>1.0240897892143399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="21" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -7718,8 +9474,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I22</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="M22">
+        <v>6098</v>
+      </c>
+      <c r="N22">
+        <v>0.60317460317460303</v>
+      </c>
+      <c r="O22">
+        <v>3857</v>
+      </c>
+      <c r="P22">
+        <v>4010</v>
+      </c>
+      <c r="Q22">
+        <v>1.03966813585688</v>
+      </c>
+      <c r="R22" t="s">
+        <v>2261</v>
+      </c>
+      <c r="S22">
+        <v>1.01468715267674</v>
+      </c>
+      <c r="T22" s="9">
+        <v>45061</v>
+      </c>
+      <c r="AE22">
+        <v>0.60317460317460303</v>
+      </c>
+      <c r="AF22">
+        <v>1.03966813585688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="22">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -7736,8 +9522,49 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I23</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="M23">
+        <v>8411</v>
+      </c>
+      <c r="N23">
+        <v>0.61038961038961004</v>
+      </c>
+      <c r="O23">
+        <v>2009.5</v>
+      </c>
+      <c r="P23">
+        <v>2056.5</v>
+      </c>
+      <c r="Q23">
+        <v>1.0233889027121099</v>
+      </c>
+      <c r="R23" t="s">
+        <v>2262</v>
+      </c>
+      <c r="S23">
+        <v>1.01468715267674</v>
+      </c>
+      <c r="T23" s="9">
+        <v>45061</v>
+      </c>
+      <c r="X23" s="13">
+        <f>CORREL(AE2:AE26,AF2:AF26)</f>
+        <v>9.5859825188132963E-2</v>
+      </c>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12" t="s">
+        <v>2266</v>
+      </c>
+      <c r="AC23" s="12" t="s">
+        <v>2267</v>
+      </c>
+      <c r="AE23">
+        <v>0.61038961038961004</v>
+      </c>
+      <c r="AF23">
+        <v>1.0233889027121099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -7754,8 +9581,45 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I24</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="M24">
+        <v>8766</v>
+      </c>
+      <c r="N24">
+        <v>0.50442477876106195</v>
+      </c>
+      <c r="O24">
+        <v>2865</v>
+      </c>
+      <c r="P24">
+        <v>3024</v>
+      </c>
+      <c r="Q24">
+        <v>1.05549738219895</v>
+      </c>
+      <c r="R24" t="s">
+        <v>2263</v>
+      </c>
+      <c r="S24">
+        <v>1.00836480756308</v>
+      </c>
+      <c r="T24" s="9">
+        <v>45065</v>
+      </c>
+      <c r="AA24" s="10" t="s">
+        <v>2266</v>
+      </c>
+      <c r="AB24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="10"/>
+      <c r="AE24">
+        <v>0.50442477876106195</v>
+      </c>
+      <c r="AF24">
+        <v>1.05549738219895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="21" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -7772,8 +9636,47 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I25</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="M25">
+        <v>4661</v>
+      </c>
+      <c r="N25">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="O25">
+        <v>4752</v>
+      </c>
+      <c r="P25">
+        <v>4799</v>
+      </c>
+      <c r="Q25">
+        <v>1.00989057239057</v>
+      </c>
+      <c r="R25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="S25">
+        <v>1.0165917288403501</v>
+      </c>
+      <c r="T25" s="9">
+        <v>45043</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>2267</v>
+      </c>
+      <c r="AB25" s="11">
+        <v>9.5859825188132963E-2</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="AF25">
+        <v>1.00989057239057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -7790,8 +9693,38 @@
         <f>テーブル1[[#This Row],[銘柄コード]]=I26</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="M26">
+        <v>9984</v>
+      </c>
+      <c r="N26">
+        <v>0.48458149779735599</v>
+      </c>
+      <c r="O26">
+        <v>5182</v>
+      </c>
+      <c r="P26">
+        <v>4949</v>
+      </c>
+      <c r="Q26">
+        <v>0.95503666538016196</v>
+      </c>
+      <c r="R26" t="s">
+        <v>2265</v>
+      </c>
+      <c r="S26">
+        <v>1.00502418608664</v>
+      </c>
+      <c r="T26" s="9">
+        <v>45057</v>
+      </c>
+      <c r="AE26">
+        <v>0.48458149779735599</v>
+      </c>
+      <c r="AF26">
+        <v>0.95503666538016196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -7809,8 +9742,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:32">
+      <c r="A28" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="3">
@@ -7827,7 +9760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:32">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -7845,8 +9778,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:32">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3">
@@ -7863,7 +9796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:32">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -7881,7 +9814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:32">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -8170,7 +10103,7 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="3">
@@ -9052,7 +10985,7 @@
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B97" s="3">
@@ -9070,7 +11003,7 @@
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B98" s="3">
@@ -9394,7 +11327,7 @@
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B116" s="3">
@@ -9412,7 +11345,7 @@
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="3">
@@ -9430,7 +11363,7 @@
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B118" s="3">
@@ -10006,7 +11939,7 @@
       </c>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="8" t="s">
         <v>150</v>
       </c>
       <c r="B150" s="3">
@@ -10150,7 +12083,7 @@
       </c>
     </row>
     <row r="158" spans="1:10">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B158" s="3">
@@ -10330,7 +12263,7 @@
       </c>
     </row>
     <row r="168" spans="1:10">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="8" t="s">
         <v>168</v>
       </c>
       <c r="B168" s="3">
@@ -10348,7 +12281,7 @@
       </c>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B169" s="3">
@@ -46241,8 +48174,9 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>